--- a/neutrons/e(V_0).xlsx
+++ b/neutrons/e(V_0).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>R_tot, MOm</t>
   </si>
@@ -25,13 +25,16 @@
     <t>V_0, kV</t>
   </si>
   <si>
-    <t>Epsilon_gas, kV / cm</t>
-  </si>
-  <si>
     <t>dielectric const LAr</t>
   </si>
   <si>
-    <t>Epsilon_LAr, kV / cm</t>
+    <t>Epsilon_GAr, kV / cm</t>
+  </si>
+  <si>
+    <t>Epsilon_LAr_drift, kV / cm</t>
+  </si>
+  <si>
+    <t>Epsilon_LAr_emiss, kV / cm</t>
   </si>
 </sst>
 </file>
@@ -377,14 +380,15 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -397,13 +401,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -425,6 +432,10 @@
         <f>D2/$J$2</f>
         <v>3.7430402844710611</v>
       </c>
+      <c r="F2" s="1">
+        <f>(A2/$K$2*40) / 1.6</f>
+        <v>0.49751243781094523</v>
+      </c>
       <c r="J2">
         <v>1.55</v>
       </c>
@@ -448,6 +459,10 @@
         <f t="shared" ref="E3:E4" si="2">D3/$J$2</f>
         <v>4.2109203200299437</v>
       </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F4" si="3">(A3/$K$2*40) / 1.6</f>
+        <v>0.55970149253731338</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -464,6 +479,10 @@
       <c r="E4" s="1">
         <f t="shared" si="2"/>
         <v>4.6788003555888276</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.62189054726368154</v>
       </c>
     </row>
   </sheetData>

--- a/neutrons/e(V_0).xlsx
+++ b/neutrons/e(V_0).xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>R_tot, MOm</t>
   </si>
@@ -35,6 +36,24 @@
   </si>
   <si>
     <t>Epsilon_LAr_emiss, kV / cm</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>ne/Ni</t>
   </si>
 </sst>
 </file>
@@ -379,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,11 +439,11 @@
       <c r="A2">
         <v>16</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f>A2/$K$2*600</f>
         <v>11.940298507462686</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f>C2 / (1.8 + 0.4 / $J$2)</f>
         <v>5.801712440930145</v>
       </c>
@@ -447,11 +466,11 @@
       <c r="A3">
         <v>18</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f t="shared" ref="C3:C4" si="0">A3/$K$2*600</f>
         <v>13.432835820895521</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D4" si="1">C3 / (1.8 + 0.4 / $J$2)</f>
         <v>6.5269264960464133</v>
       </c>
@@ -468,11 +487,11 @@
       <c r="A4">
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
         <v>14.925373134328359</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" si="1"/>
         <v>7.2521405511626824</v>
       </c>
@@ -489,4 +508,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.49445</v>
+      </c>
+      <c r="B2">
+        <v>44.589289999999998</v>
+      </c>
+      <c r="C2">
+        <f>23.6*0.001</f>
+        <v>2.3600000000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>59.5</v>
+      </c>
+      <c r="F2">
+        <f>$A$2/(1 + $B$2 / E2)</f>
+        <v>0.28263978935777162</v>
+      </c>
+      <c r="G2">
+        <f>A2/(1 + B2/E2)*(E2 / $C$2)</f>
+        <v>712.58760452489025</v>
+      </c>
+      <c r="I2">
+        <f>G2</f>
+        <v>712.58760452489025</v>
+      </c>
+      <c r="K2">
+        <f>I2*C2/(2 * A2) * (1 + (1 + 4*A2*B2/(G2*C2))^0.5 )</f>
+        <v>59.500000000000021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/neutrons/e(V_0).xlsx
+++ b/neutrons/e(V_0).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,19 +467,19 @@
         <v>18</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C4" si="0">A3/$K$2*600</f>
+        <f t="shared" ref="C3" si="0">A3/$K$2*600</f>
         <v>13.432835820895521</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D4" si="1">C3 / (1.8 + 0.4 / $J$2)</f>
+        <f t="shared" ref="D3" si="1">C3 / (1.8 + 0.4 / $J$2)</f>
         <v>6.5269264960464133</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E4" si="2">D3/$J$2</f>
+        <f t="shared" ref="E3:E5" si="2">D3/$J$2</f>
         <v>4.2109203200299437</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F4" si="3">(A3/$K$2*40) / 1.6</f>
+        <f t="shared" ref="F3" si="3">(A3/$K$2*40) / 1.6</f>
         <v>0.55970149253731338</v>
       </c>
     </row>
@@ -488,11 +488,11 @@
         <v>20</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
+        <f>A4/$K$2*600</f>
         <v>14.925373134328359</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="1"/>
+        <f>C4 / (1.8 + 0.4 / $J$2)</f>
         <v>7.2521405511626824</v>
       </c>
       <c r="E4" s="1">
@@ -500,8 +500,29 @@
         <v>4.6788003555888276</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="3"/>
+        <f>(A4/$K$2*40) / 1.6</f>
         <v>0.62189054726368154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>13.7</v>
+      </c>
+      <c r="C5" s="1">
+        <f>A5/$K$2*600</f>
+        <v>10.223880597014926</v>
+      </c>
+      <c r="D5" s="1">
+        <f>C5 / (1.8 + 0.4 / $J$2)</f>
+        <v>4.9677162775464376</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2049782435783469</v>
+      </c>
+      <c r="F5" s="1">
+        <f>(A5/$K$2*40) / 1.6</f>
+        <v>0.42599502487562185</v>
       </c>
     </row>
   </sheetData>
@@ -514,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
